--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,7 +847,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -956,7 +956,7 @@
     <t>PractitionerRole.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -3068,7 +3068,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>120</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>209</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>214</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>219</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>323</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>333</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>362</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>367</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>380</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>385</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>390</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>395</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>400</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>405</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>410</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>422</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>429</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>585</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>590</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>619</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>631</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>634</v>
       </c>
@@ -18686,12 +18686,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO140">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
